--- a/Outputs/3. Prosumer percentage/Output Files/75/Output_2_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/75/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1692963.072790036</v>
+        <v>1610987.381397194</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029741</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>175.9481180817977</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -712,19 +712,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>34.60443699509325</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>48.57570989689602</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>18.56518279476508</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>168.8073414827564</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
@@ -904,13 +904,13 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>74.00536571764114</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>35.23931226784362</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>56.58170360569645</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -1153,7 +1153,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>153.230257740554</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -1308,10 +1308,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>90.53682738164284</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>190.3381595318039</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1387,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>85.2997057160983</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>325.8567232380378</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>65.42520756919177</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>96.0851398248662</v>
+        <v>88.08110241150609</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -1672,7 +1672,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1770,16 +1770,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>180.0549527254068</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>228.8258688538636</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -1897,10 +1897,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>31.99018014062471</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>168.6622545853707</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2013,13 +2013,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>40.50449872066427</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>401.5578040935733</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2241,25 +2241,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>42.43741174507669</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>69.07229461213953</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>369.6581867526364</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2374,10 +2374,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2481,22 +2481,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>29.01927520433207</v>
+        <v>106.3279845216903</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>317.5475256392241</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2620,7 +2620,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>308.0655216241162</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>13.98329378456244</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>165.421695385058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>182.1412945836353</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>78.78400486012869</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
@@ -3006,16 +3006,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>139.8600882386044</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>97.56310642661438</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>292.2732044987391</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3189,25 +3189,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>91.04473440253321</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>108.0792368915032</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3274,19 +3274,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>372.3536886992977</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>297.1427106764702</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>1.499569751634176</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>109.0153965500893</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>334.0755358138493</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3675,13 +3675,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>35.73692418651449</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>213.1760542313935</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>181.5733848809636</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>85.29970571609803</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>89.11624507216678</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>166.7165542762732</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3994,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>211.6544656203724</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>166.7165542762732</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>180.6077930059077</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1142.108628778666</v>
+        <v>1689.631969834256</v>
       </c>
       <c r="C2" t="n">
-        <v>1136.02444213234</v>
+        <v>1279.507379147526</v>
       </c>
       <c r="D2" t="n">
-        <v>731.5605122254008</v>
+        <v>875.0434492405864</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8351404256051</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4333,22 +4333,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M2" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>1075.450954962253</v>
       </c>
-      <c r="M2" t="n">
-        <v>1571.411346813777</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1571.411346813777</v>
-      </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4360,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.973206274203</v>
+        <v>1695.812745458341</v>
       </c>
       <c r="W2" t="n">
-        <v>1952.973206274203</v>
+        <v>1695.812745458341</v>
       </c>
       <c r="X2" t="n">
-        <v>1552.329808443156</v>
+        <v>1695.812745458341</v>
       </c>
       <c r="Y2" t="n">
-        <v>1552.329808443156</v>
+        <v>1695.812745458341</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585607</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="M3" t="n">
-        <v>751.4208778585607</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="N3" t="n">
-        <v>1268.263812524886</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>814.2410896617387</v>
+        <v>90.83145926283035</v>
       </c>
       <c r="C4" t="n">
-        <v>643.1477172234552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>483.6530725463652</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>322.7422574146847</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1331.615243227154</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1312.862533333452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1038.976788272974</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>1038.976788272974</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="X4" t="n">
-        <v>1038.976788272974</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="Y4" t="n">
-        <v>814.2410896617387</v>
+        <v>278.5311656568747</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1603.280207151329</v>
+        <v>391.1589950301166</v>
       </c>
       <c r="C5" t="n">
-        <v>1597.196020505003</v>
+        <v>385.0748083837908</v>
       </c>
       <c r="D5" t="n">
-        <v>1596.772494638468</v>
+        <v>384.6512825172554</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.432279155364</v>
+        <v>374.3514710745562</v>
       </c>
       <c r="F5" t="n">
-        <v>761.4018671090519</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G5" t="n">
         <v>352.673583001884</v>
@@ -4570,22 +4570,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>216.5644706858345</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>733.4074053521598</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>1250.250340018485</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>1767.09327468481</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2013.501386815818</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2013.501386815818</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2013.501386815818</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>2013.501386815818</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.501386815818</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.501386815818</v>
+        <v>561.671461174315</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.501386815818</v>
+        <v>561.671461174315</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4652,22 +4652,22 @@
         <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M6" t="n">
-        <v>1531.257211227551</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2048.100145893876</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.5337470302825</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>519.5337470302825</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>519.5337470302825</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1535.568717333438</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1535.568717333438</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1535.568717333438</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1535.568717333438</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1261.68297227296</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>982.6133077818345</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>744.2694456415178</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y7" t="n">
-        <v>519.5337470302825</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2541.96541775283</v>
+        <v>2098.42667555215</v>
       </c>
       <c r="C8" t="n">
-        <v>2131.840827066101</v>
+        <v>1688.302084865421</v>
       </c>
       <c r="D8" t="n">
-        <v>1727.376897159161</v>
+        <v>1283.838154958481</v>
       </c>
       <c r="E8" t="n">
-        <v>1313.036681676058</v>
+        <v>1226.684918993131</v>
       </c>
       <c r="F8" t="n">
-        <v>892.0062696297455</v>
+        <v>805.6545069468186</v>
       </c>
       <c r="G8" t="n">
-        <v>483.2779855225776</v>
+        <v>396.9262228396508</v>
       </c>
       <c r="H8" t="n">
-        <v>172.3694881502956</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
         <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>340.2031969351231</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>878.3626980441626</v>
+        <v>624.1772265764083</v>
       </c>
       <c r="L8" t="n">
-        <v>1590.9540978564</v>
+        <v>1336.768626388646</v>
       </c>
       <c r="M8" t="n">
-        <v>2367.272688848154</v>
+        <v>2113.0872173804</v>
       </c>
       <c r="N8" t="n">
-        <v>3120.453705486772</v>
+        <v>2866.268234019018</v>
       </c>
       <c r="O8" t="n">
-        <v>3450.568568653995</v>
+        <v>3509.899090436123</v>
       </c>
       <c r="P8" t="n">
         <v>3979.725266573146</v>
@@ -4831,25 +4831,25 @@
         <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4165.605198162539</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="T8" t="n">
-        <v>4165.605198162539</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="U8" t="n">
-        <v>3908.544706422049</v>
+        <v>4043.825781627948</v>
       </c>
       <c r="V8" t="n">
-        <v>3753.766668300277</v>
+        <v>3693.988226964429</v>
       </c>
       <c r="W8" t="n">
-        <v>3753.766668300277</v>
+        <v>3310.227926099597</v>
       </c>
       <c r="X8" t="n">
-        <v>3353.12327046923</v>
+        <v>2909.58452826855</v>
       </c>
       <c r="Y8" t="n">
-        <v>2952.18659741732</v>
+        <v>2508.64785521664</v>
       </c>
     </row>
     <row r="9">
@@ -4886,16 +4886,16 @@
         <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>278.830583030002</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="L9" t="n">
-        <v>278.830583030002</v>
+        <v>1220.956564145355</v>
       </c>
       <c r="M9" t="n">
-        <v>516.9994735994608</v>
+        <v>1220.956564145355</v>
       </c>
       <c r="N9" t="n">
-        <v>516.9994735994608</v>
+        <v>1220.956564145355</v>
       </c>
       <c r="O9" t="n">
         <v>1220.956564145355</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>744.7669487888793</v>
+        <v>1010.720449879097</v>
       </c>
       <c r="C10" t="n">
-        <v>573.6735763505958</v>
+        <v>839.6270774408131</v>
       </c>
       <c r="D10" t="n">
-        <v>414.1789316735059</v>
+        <v>680.132432763723</v>
       </c>
       <c r="E10" t="n">
-        <v>253.2681165418253</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="F10" t="n">
-        <v>253.2681165418253</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736876</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736876</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
         <v>86.01772546736876</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1060.953988189653</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>969.5026474001146</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>969.5026474001146</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>969.5026474001146</v>
+        <v>1423.155854884376</v>
       </c>
       <c r="Y10" t="n">
-        <v>744.7669487888793</v>
+        <v>1198.420156273141</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2549.191389976085</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C11" t="n">
-        <v>2139.066799289355</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D11" t="n">
-        <v>1734.602869382415</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E11" t="n">
-        <v>1320.262653899312</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F11" t="n">
-        <v>899.2322418529996</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G11" t="n">
-        <v>490.5039577458317</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H11" t="n">
         <v>179.5954603735497</v>
@@ -5041,10 +5041,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4439.978400477999</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U11" t="n">
-        <v>4439.978400477999</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V11" t="n">
-        <v>4090.140845814479</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W11" t="n">
-        <v>3760.992640523532</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X11" t="n">
-        <v>3360.349242692484</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y11" t="n">
-        <v>2959.412569640574</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N12" t="n">
-        <v>1210.13812587521</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
-        <v>1914.095216421104</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U13" t="n">
-        <v>828.6312213896092</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V13" t="n">
-        <v>554.7454763291312</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W13" t="n">
-        <v>275.6758118380055</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X13" t="n">
-        <v>209.5897435862967</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2140.463105868917</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>1730.338515182187</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1325.874585275247</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>911.5343697921442</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
         <v>490.5039577458317</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4565.129187738346</v>
+        <v>4573.214074014467</v>
       </c>
       <c r="T14" t="n">
-        <v>4342.922703685204</v>
+        <v>4351.007589961326</v>
       </c>
       <c r="U14" t="n">
-        <v>4085.862211944715</v>
+        <v>4093.947098220835</v>
       </c>
       <c r="V14" t="n">
-        <v>3736.024657281195</v>
+        <v>3744.109543557316</v>
       </c>
       <c r="W14" t="n">
-        <v>3352.264356416364</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X14" t="n">
-        <v>2951.620958585316</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2550.684285533406</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>874.0699105066985</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>874.0699105066985</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N15" t="n">
-        <v>874.0699105066985</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O15" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
         <v>2139.732893541123</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1182.57754799176</v>
+        <v>691.2013863508041</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.484175553476</v>
+        <v>520.1080139125206</v>
       </c>
       <c r="D16" t="n">
-        <v>851.989530876386</v>
+        <v>520.1080139125206</v>
       </c>
       <c r="E16" t="n">
-        <v>691.0787157447054</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G16" t="n">
         <v>359.19719878084</v>
@@ -5466,22 +5466,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1622.642594311473</v>
+        <v>1440.76890468985</v>
       </c>
       <c r="U16" t="n">
-        <v>1622.642594311473</v>
+        <v>1157.970757235974</v>
       </c>
       <c r="V16" t="n">
-        <v>1622.642594311473</v>
+        <v>1157.970757235974</v>
       </c>
       <c r="W16" t="n">
-        <v>1622.642594311473</v>
+        <v>878.9010927448485</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.012952997039</v>
+        <v>878.9010927448485</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.277254385804</v>
+        <v>878.9010927448485</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F17" t="n">
         <v>899.2322418529996</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>749.3736558270855</v>
+        <v>733.6225264165333</v>
       </c>
       <c r="C19" t="n">
-        <v>578.280283388802</v>
+        <v>563.2566126939366</v>
       </c>
       <c r="D19" t="n">
-        <v>418.7856387117121</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1297.821136963575</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>1015.022989509699</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.022989509699</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="W19" t="n">
-        <v>1015.022989509699</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1093544383208</v>
+        <v>958.3582250277686</v>
       </c>
       <c r="Y19" t="n">
-        <v>749.3736558270855</v>
+        <v>733.6225264165333</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2459.725286714852</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C20" t="n">
-        <v>2049.600696028122</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D20" t="n">
-        <v>1645.136766121183</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E20" t="n">
-        <v>1230.796550638079</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F20" t="n">
-        <v>809.7661385917668</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4405.12439279065</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V20" t="n">
-        <v>4055.286838127131</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W20" t="n">
-        <v>3671.526537262299</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X20" t="n">
-        <v>3270.883139431251</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y20" t="n">
-        <v>2869.946466379341</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>537.7509497924339</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="C22" t="n">
-        <v>537.7509497924339</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>537.7509497924339</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>376.8401346607533</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>376.8401346607533</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1467.599881429156</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1467.599881429156</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>1467.599881429156</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V22" t="n">
-        <v>1467.599881429156</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W22" t="n">
-        <v>1188.53021693803</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X22" t="n">
-        <v>950.1863547977135</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y22" t="n">
-        <v>725.4506561864782</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
         <v>2139.066799289355</v>
@@ -6022,19 +6022,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>380.6831160245802</v>
+        <v>901.6003762066769</v>
       </c>
       <c r="C25" t="n">
-        <v>209.5897435862967</v>
+        <v>730.5070037683934</v>
       </c>
       <c r="D25" t="n">
-        <v>209.5897435862967</v>
+        <v>571.0123590913033</v>
       </c>
       <c r="E25" t="n">
-        <v>209.5897435862967</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F25" t="n">
-        <v>209.5897435862967</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G25" t="n">
-        <v>209.5897435862967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U25" t="n">
-        <v>1339.844446857597</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V25" t="n">
-        <v>1310.532047661302</v>
+        <v>1089.300082600721</v>
       </c>
       <c r="W25" t="n">
-        <v>1031.462383170177</v>
+        <v>1089.300082600721</v>
       </c>
       <c r="X25" t="n">
-        <v>793.1185210298598</v>
+        <v>1089.300082600721</v>
       </c>
       <c r="Y25" t="n">
-        <v>568.3828224186245</v>
+        <v>1089.300082600721</v>
       </c>
     </row>
     <row r="26">
@@ -6268,10 +6268,10 @@
         <v>3671.526537262299</v>
       </c>
       <c r="X26" t="n">
-        <v>3270.883139431251</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2869.946466379341</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>592.7987223006619</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U28" t="n">
-        <v>1537.369875986873</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.369875986873</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="W28" t="n">
-        <v>1537.369875986873</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="X28" t="n">
-        <v>1537.369875986873</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2462.839627293158</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C29" t="n">
-        <v>2052.715036606428</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.251106699488</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E29" t="n">
-        <v>1233.910891216385</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F29" t="n">
-        <v>812.8804791700727</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U29" t="n">
-        <v>4408.238733368956</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V29" t="n">
-        <v>4058.401178705436</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W29" t="n">
-        <v>3674.640877840605</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X29" t="n">
-        <v>3273.997480009557</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y29" t="n">
-        <v>2873.060806957647</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3726.900695206644</v>
+        <v>770.6585186337243</v>
       </c>
       <c r="C31" t="n">
-        <v>3726.900695206644</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="D31" t="n">
-        <v>3726.900695206644</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E31" t="n">
-        <v>3565.989880074963</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4390.520398086449</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>4150.971659063151</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U31" t="n">
-        <v>3868.173511609275</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V31" t="n">
-        <v>3726.900695206644</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="W31" t="n">
-        <v>3726.900695206644</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="X31" t="n">
-        <v>3726.900695206644</v>
+        <v>958.3582250277686</v>
       </c>
       <c r="Y31" t="n">
-        <v>3726.900695206644</v>
+        <v>958.3582250277686</v>
       </c>
     </row>
     <row r="32">
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4563.636292181024</v>
       </c>
       <c r="T32" t="n">
-        <v>4439.978400477999</v>
+        <v>4341.429808127883</v>
       </c>
       <c r="U32" t="n">
-        <v>4439.978400477999</v>
+        <v>4084.369316387393</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3734.531761723874</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3297.417113799698</v>
+        <v>1032.970092797216</v>
       </c>
       <c r="C34" t="n">
-        <v>3297.417113799698</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="D34" t="n">
-        <v>3297.417113799698</v>
+        <v>702.3820756818425</v>
       </c>
       <c r="E34" t="n">
-        <v>3297.417113799698</v>
+        <v>541.471260550162</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>4390.520398086449</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>4150.971659063151</v>
+        <v>1445.405497802496</v>
       </c>
       <c r="U34" t="n">
-        <v>3868.173511609275</v>
+        <v>1445.405497802496</v>
       </c>
       <c r="V34" t="n">
-        <v>3594.287766548796</v>
+        <v>1445.405497802496</v>
       </c>
       <c r="W34" t="n">
-        <v>3485.116820193743</v>
+        <v>1445.405497802496</v>
       </c>
       <c r="X34" t="n">
-        <v>3485.116820193743</v>
+        <v>1445.405497802496</v>
       </c>
       <c r="Y34" t="n">
-        <v>3485.116820193743</v>
+        <v>1220.66979919126</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E35" t="n">
-        <v>911.5343697921442</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5039577458317</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6973,16 +6973,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M36" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>737.1582019015545</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C37" t="n">
-        <v>737.1582019015545</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1537.369875986873</v>
+        <v>1512.526032139666</v>
       </c>
       <c r="U37" t="n">
-        <v>1254.571728532997</v>
+        <v>1229.72788468579</v>
       </c>
       <c r="V37" t="n">
-        <v>1254.571728532997</v>
+        <v>955.8421396253117</v>
       </c>
       <c r="W37" t="n">
-        <v>975.5020640418711</v>
+        <v>676.772475134186</v>
       </c>
       <c r="X37" t="n">
-        <v>737.1582019015545</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y37" t="n">
-        <v>737.1582019015545</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="38">
@@ -7201,19 +7201,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3697.79927886809</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
         <v>3360.349242692484</v>
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>749.3736558270855</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C40" t="n">
-        <v>578.280283388802</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D40" t="n">
-        <v>418.7856387117121</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E40" t="n">
-        <v>257.8748235800315</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7359,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U40" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V40" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W40" t="n">
-        <v>1400.152922972682</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X40" t="n">
-        <v>1161.809060832365</v>
+        <v>1407.313246602995</v>
       </c>
       <c r="Y40" t="n">
-        <v>937.0733622211299</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2237.518802661711</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C41" t="n">
-        <v>1827.394211974981</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D41" t="n">
-        <v>1422.930282068041</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E41" t="n">
-        <v>1008.590066584938</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F41" t="n">
-        <v>587.5596545386256</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4439.978400477999</v>
+        <v>4440.742490420091</v>
       </c>
       <c r="U41" t="n">
-        <v>4182.917908737509</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V41" t="n">
-        <v>3833.080354073989</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W41" t="n">
-        <v>3449.320053209158</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X41" t="n">
-        <v>3048.67665537811</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y41" t="n">
-        <v>2647.7399823262</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>532.5581915209807</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>1406.216283632599</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4141.042874936948</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C43" t="n">
-        <v>4051.026465773143</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D43" t="n">
-        <v>3891.531821096053</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E43" t="n">
-        <v>3730.621005964372</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F43" t="n">
-        <v>3565.989880074963</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G43" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>4662.18488453114</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="U43" t="n">
-        <v>4379.386737077264</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="V43" t="n">
-        <v>4379.386737077264</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="W43" t="n">
-        <v>4379.386737077264</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="X43" t="n">
-        <v>4141.042874936948</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="Y43" t="n">
-        <v>4141.042874936948</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D44" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E44" t="n">
-        <v>1233.910891216385</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F44" t="n">
-        <v>812.8804791700727</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G44" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H44" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7684,16 +7684,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3132.785987910289</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C46" t="n">
-        <v>3132.785987910289</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D46" t="n">
-        <v>3132.785987910289</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E46" t="n">
-        <v>3132.785987910289</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F46" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>4390.520398086449</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>4150.971659063151</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="U46" t="n">
-        <v>3868.173511609275</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="V46" t="n">
-        <v>3594.287766548796</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="W46" t="n">
-        <v>3315.218102057671</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="X46" t="n">
-        <v>3132.785987910289</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="Y46" t="n">
-        <v>3132.785987910289</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>594.2603172363631</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>270.21439869122</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8057,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>175.2980289959031</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>334.1030092285466</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8218,7 +8218,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>265.701425083553</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
@@ -8230,13 +8230,13 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8300,13 +8300,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>236.9512395019903</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
@@ -8315,10 +8315,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.25235142021847</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8467,10 +8467,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>426.639132360351</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>628.1510783507341</v>
+        <v>568.2212583687864</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8534,19 +8534,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139343</v>
       </c>
       <c r="M9" t="n">
-        <v>298.1389206772647</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
@@ -8780,13 +8780,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>797.4175450132245</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>282.1764805785802</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8947,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>384.4175102257753</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>86.34977678504856</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>560.7155587704844</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>745.8914891781321</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
@@ -11147,13 +11147,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>306.5558355239979</v>
       </c>
       <c r="N42" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11162,7 +11162,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>54.06597461814528</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>170.5352159497217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>37.84312462897394</v>
+        <v>45.84716204233405</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>57.09829890765812</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>187.9942390719857</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>222.4997066824603</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.7201841285299224</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23955,7 +23955,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>195.4559247982492</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.083197172522773</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>126.945026968824</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>115.4555558267493</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>36.36515802722619</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24262,10 +24262,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>242.1276124055412</v>
+        <v>164.8189030881829</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>88.57144222862047</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>88.57144222862075</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>257.1635938253108</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -24669,7 +24669,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.06664624006493</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>222.4997066824608</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>90.59843385377197</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>131.2867993712688</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>36.36515802722576</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>54.06597461814499</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>146.1085172305317</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>168.1997309547112</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>37.84312462897452</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>156.4001284786849</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>128.1378550829756</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>62.56142803888764</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -25611,10 +25611,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>240.5420436596999</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>22.78436928751995</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>223.0676163851325</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>80.26619364173388</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>70.43669735679174</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25851,7 +25851,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>70.43669735679174</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>55.35263051300575</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666681.5601910449</v>
+        <v>666681.5601910448</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666681.5601910448</v>
+        <v>666681.5601910449</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666681.5601910448</v>
+        <v>666681.5601910446</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666681.5601910449</v>
+        <v>666681.5601910447</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666681.5601910447</v>
+        <v>666681.5601910446</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666681.5601910447</v>
+        <v>666681.5601910448</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666681.5601910447</v>
+        <v>666681.5601910446</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666681.5601910447</v>
+        <v>666681.5601910446</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423494.2218843882</v>
+        <v>423494.2218843881</v>
       </c>
       <c r="C2" t="n">
         <v>423494.2218843881</v>
       </c>
       <c r="D2" t="n">
-        <v>423494.2218843881</v>
+        <v>423494.2218843882</v>
       </c>
       <c r="E2" t="n">
+        <v>376543.2677956218</v>
+      </c>
+      <c r="F2" t="n">
         <v>376543.2677956219</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>376543.267795622</v>
       </c>
-      <c r="G2" t="n">
-        <v>376543.2677956219</v>
-      </c>
       <c r="H2" t="n">
-        <v>376543.267795622</v>
+        <v>376543.2677956221</v>
       </c>
       <c r="I2" t="n">
         <v>376543.2677956219</v>
       </c>
       <c r="J2" t="n">
-        <v>376543.2677956218</v>
+        <v>376543.267795622</v>
       </c>
       <c r="K2" t="n">
+        <v>376543.267795622</v>
+      </c>
+      <c r="L2" t="n">
+        <v>376543.2677956221</v>
+      </c>
+      <c r="M2" t="n">
+        <v>376543.2677956221</v>
+      </c>
+      <c r="N2" t="n">
+        <v>376543.267795622</v>
+      </c>
+      <c r="O2" t="n">
         <v>376543.2677956219</v>
       </c>
-      <c r="L2" t="n">
-        <v>376543.2677956218</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>376543.267795622</v>
-      </c>
-      <c r="N2" t="n">
-        <v>376543.2677956218</v>
-      </c>
-      <c r="O2" t="n">
-        <v>376543.2677956221</v>
-      </c>
-      <c r="P2" t="n">
-        <v>376543.2677956219</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171131.8564566692</v>
+        <v>177245.8179471932</v>
       </c>
       <c r="C4" t="n">
-        <v>171131.8564566693</v>
+        <v>177245.8179471932</v>
       </c>
       <c r="D4" t="n">
-        <v>81090.1770308397</v>
+        <v>89963.69823202251</v>
       </c>
       <c r="E4" t="n">
-        <v>25159.57259595974</v>
+        <v>34483.69972462472</v>
       </c>
       <c r="F4" t="n">
-        <v>25159.57259595974</v>
+        <v>34483.69972462472</v>
       </c>
       <c r="G4" t="n">
-        <v>25159.57259595974</v>
+        <v>34483.69972462472</v>
       </c>
       <c r="H4" t="n">
-        <v>25159.57259595974</v>
+        <v>34483.69972462471</v>
       </c>
       <c r="I4" t="n">
-        <v>25159.57259595974</v>
+        <v>34483.69972462471</v>
       </c>
       <c r="J4" t="n">
-        <v>25159.57259595974</v>
+        <v>34483.69972462471</v>
       </c>
       <c r="K4" t="n">
-        <v>25159.57259595974</v>
+        <v>34483.69972462472</v>
       </c>
       <c r="L4" t="n">
-        <v>25159.57259595974</v>
+        <v>34483.69972462472</v>
       </c>
       <c r="M4" t="n">
-        <v>25159.57259595975</v>
+        <v>34483.69972462472</v>
       </c>
       <c r="N4" t="n">
-        <v>25159.57259595974</v>
+        <v>34483.69972462471</v>
       </c>
       <c r="O4" t="n">
-        <v>25159.57259595974</v>
+        <v>34483.69972462472</v>
       </c>
       <c r="P4" t="n">
-        <v>25159.57259595975</v>
+        <v>34483.69972462471</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12037.79045610735</v>
+        <v>5923.828965583227</v>
       </c>
       <c r="C6" t="n">
-        <v>186993.3003492213</v>
+        <v>180879.3388586974</v>
       </c>
       <c r="D6" t="n">
-        <v>71575.5045882797</v>
+        <v>62701.98338709696</v>
       </c>
       <c r="E6" t="n">
-        <v>253549.5307738546</v>
+        <v>242419.5977186985</v>
       </c>
       <c r="F6" t="n">
-        <v>280518.4849547889</v>
+        <v>269388.5518996328</v>
       </c>
       <c r="G6" t="n">
-        <v>280518.4849547889</v>
+        <v>269388.551899633</v>
       </c>
       <c r="H6" t="n">
-        <v>280518.4849547889</v>
+        <v>269388.5518996331</v>
       </c>
       <c r="I6" t="n">
-        <v>280518.4849547889</v>
+        <v>269388.551899633</v>
       </c>
       <c r="J6" t="n">
-        <v>143923.6841488938</v>
+        <v>132793.751093738</v>
       </c>
       <c r="K6" t="n">
-        <v>280518.4849547888</v>
+        <v>269388.551899633</v>
       </c>
       <c r="L6" t="n">
-        <v>140519.174090036</v>
+        <v>129389.2410348803</v>
       </c>
       <c r="M6" t="n">
-        <v>258009.2201807415</v>
+        <v>246879.2871255856</v>
       </c>
       <c r="N6" t="n">
-        <v>280518.4849547887</v>
+        <v>269388.551899633</v>
       </c>
       <c r="O6" t="n">
-        <v>280518.484954789</v>
+        <v>269388.551899633</v>
       </c>
       <c r="P6" t="n">
-        <v>280518.4849547888</v>
+        <v>269388.551899633</v>
       </c>
     </row>
   </sheetData>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>234.2486952464746</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>311.7347421217909</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>120.8067288170046</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27557,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>261.404983184572</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>237.3116263850881</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27624,13 +27624,13 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>59.922898736199</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27782,16 +27782,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>49.18067887351072</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>353.6151097225758</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -27912,10 +27912,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>193.1089213763301</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>180.6100602282304</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>45.62226398710956</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>276.3515302285466</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
@@ -34950,13 +34950,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>179.3869557635729</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,10 +35035,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>40.55973291537975</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35187,10 +35187,10 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>333.4493567345679</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>534.50171506985</v>
+        <v>474.5718950879022</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35254,19 +35254,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>491.2320453030853</v>
       </c>
       <c r="M9" t="n">
-        <v>240.5746369388472</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
@@ -35500,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35667,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>328.3029864149263</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>504.6010349596355</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>248.9915517855805</v>
       </c>
       <c r="N42" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
